--- a/etf_payment_schedule.xlsx
+++ b/etf_payment_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r328631\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financeiro\GIT2\Robov1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106616A4-1C26-4CA4-9C7D-F458736274AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA435545-D3AD-4CD1-A5FD-D85B178EBFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -767,7 +767,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,6 +777,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -819,7 +825,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,15 +1137,15 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +1173,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1215,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1222,7 +1229,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1236,7 +1243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1257,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1264,7 +1271,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1285,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1292,7 +1299,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1313,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1327,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1348,7 +1355,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1362,7 +1369,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1376,7 +1383,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1404,7 +1411,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1432,7 +1439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1446,7 +1453,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1467,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1474,7 +1481,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1509,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1530,7 +1537,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1565,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +1579,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1586,7 +1593,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1600,7 +1607,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1614,7 +1621,7 @@
         <v>45884</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1642,7 +1649,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1663,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1670,7 +1677,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1698,7 +1705,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1719,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1726,7 +1733,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1740,7 +1747,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1754,7 +1761,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1768,7 +1775,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1782,7 +1789,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +1817,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1831,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1838,7 +1845,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1852,7 +1859,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1866,7 +1873,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1880,7 +1887,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1912,13 +1919,13 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
@@ -1935,7 +1942,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -1952,7 +1959,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -1969,7 +1976,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -1986,7 +1993,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -2003,7 +2010,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -2020,7 +2027,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -2037,7 +2044,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -2054,7 +2061,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -2071,7 +2078,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -2088,7 +2095,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>216</v>
       </c>
@@ -2099,7 +2106,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>219</v>
       </c>
@@ -2114,15 +2121,15 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2152,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>227</v>
       </c>
@@ -2168,14 +2175,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>146</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -2191,7 +2198,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>227</v>
       </c>
@@ -2214,14 +2221,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>147</v>
       </c>
       <c r="D6" s="7" t="s">
